--- a/biology/Zoologie/Diploria_labyrinthiformis/Diploria_labyrinthiformis.xlsx
+++ b/biology/Zoologie/Diploria_labyrinthiformis/Diploria_labyrinthiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corail-cerveau rainuré, Corail-cerveau labyrinthe, Corail-cerveau de Neptune
 Diploria labyrinthiformis est une espèce de coraux durs de la famille des Faviidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces coraux durs se rencontrent dans les eaux tropicales de l'océan Atlantique occidental soit à la pointe septentrionale de la Floride, dans le golfe du Mexique, la mer des Caraïbes, les Bahamas et les Bermudes. Il est présent de la surface jusqu'à 30 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces coraux durs se rencontrent dans les eaux tropicales de l'océan Atlantique occidental soit à la pointe septentrionale de la Floride, dans le golfe du Mexique, la mer des Caraïbes, les Bahamas et les Bermudes. Il est présent de la surface jusqu'à 30 m de profondeur.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce corail représente une colonie de forme hémisphérique (voire sub-sphérique) pouvant atteindre un diamètre d'un mètre. Il se reconnait aux reliefs labyrinthiques qui le parcourent, et lui donnent son nom.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
